--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,6 +106,27 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <t>saas</t>
+  </si>
+  <si>
+    <t>古都张姐鱼汤面</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>顾鹏</t>
+  </si>
+  <si>
+    <t>朱道文</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -136,22 +157,28 @@
     <t>肖如梦</t>
   </si>
   <si>
-    <t>张姐鱼汤面馆</t>
+    <t>古都张姐鱼汤面馆</t>
   </si>
   <si>
     <t>未实施，待和商家沟通</t>
   </si>
   <si>
-    <t>SAAS+微信</t>
+    <t>丁万能</t>
   </si>
   <si>
-    <t>丁万能</t>
+    <t>日久料理</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
   </si>
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>日期</t>
+  </si>
+  <si>
+    <t>加班地点/商户名称</t>
   </si>
   <si>
     <t>加班内容</t>
@@ -161,13 +188,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -231,14 +265,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,14 +326,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +349,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -298,9 +379,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,60 +402,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +525,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,108 +621,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -610,6 +650,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -634,47 +687,28 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -695,7 +729,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -705,6 +741,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -738,6 +800,73 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -748,23 +877,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -788,7 +904,48 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -801,7 +958,35 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -811,7 +996,22 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -824,10 +1024,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -836,97 +1034,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -975,6 +1093,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -985,24 +1118,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,17 +1137,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,6 +1156,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1055,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,145 +1185,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1213,13 +1331,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1228,163 +1343,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,245 +1868,272 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="35">
+    <row r="3" ht="21" customHeight="1" spans="1:13">
+      <c r="A3" s="42">
         <v>12</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="43">
         <v>52</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38">
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="39">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="e">
+      <c r="I3" s="65">
+        <v>0</v>
+      </c>
+      <c r="J3" s="66" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="67">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="68">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="69">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38">
-        <f>C4-D4</f>
+    <row r="4" spans="1:13">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43">
+        <v>2</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45">
         <v>0</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="39">
+      <c r="E4" s="45">
+        <v>1</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54" t="e">
+      <c r="I4" s="65">
+        <v>0</v>
+      </c>
+      <c r="J4" s="66" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="67">
         <f>C4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="56">
+        <v>1</v>
+      </c>
+      <c r="L4" s="68">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="57" t="e">
+      <c r="M4" s="69">
         <f>L4/K4*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44">
+        <v>2</v>
+      </c>
+      <c r="D5" s="45">
         <v>1</v>
       </c>
-      <c r="B5" s="41">
-        <v>2</v>
-      </c>
-      <c r="C5" s="42">
-        <v>1</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="E5" s="45">
         <f>C5-D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59" t="e">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66">
         <f>I5/L5*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="60">
-        <f>C5+K10</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="67">
+        <f>C5+G5</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="68">
+        <f>D5+G5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="61">
-        <f>D5+G5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="62">
+      <c r="M5" s="69">
         <f>L5/K5*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="35"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
         <f>C6-D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59" t="e">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66" t="e">
         <f>I6/L6*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="60">
-        <f>C6+K11</f>
+      <c r="K6" s="67">
+        <f>C6+G6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="68">
         <f>D6+G6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="62" t="e">
+      <c r="M6" s="69" t="e">
         <f>L6/K6*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="e">
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71" t="e">
         <f>I7/L7*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="60">
-        <f>C7+K12</f>
+      <c r="K7" s="72">
+        <f>C7+G7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="73">
         <f>D7+G7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="62" t="e">
+      <c r="M7" s="74" t="e">
         <f>L7/K7*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1963,18 +2144,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="3" width="11.4833333333333" customWidth="1"/>
-    <col min="4" max="5" width="9.73333333333333"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
@@ -1984,69 +2166,99 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="28.5" spans="1:15">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="27" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="31">
+        <v>43115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76123218</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13952068391</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
@@ -6927,203 +7139,13 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
-      <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-    </row>
-    <row r="291" spans="1:15">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
-      <c r="L291" s="1"/>
-      <c r="M291" s="1"/>
-      <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
-    </row>
-    <row r="292" spans="1:15">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-      <c r="G292" s="1"/>
-      <c r="H292" s="1"/>
-      <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
-      <c r="L292" s="1"/>
-      <c r="M292" s="1"/>
-      <c r="N292" s="1"/>
-      <c r="O292" s="1"/>
-    </row>
-    <row r="293" spans="1:15">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
-      <c r="M293" s="1"/>
-      <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-    </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-    </row>
-    <row r="295" spans="1:15">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-      <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
-      <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
-      <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
-      <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
-    </row>
-    <row r="296" spans="1:15">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
-      <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
-      <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
-      <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
-    </row>
-    <row r="297" spans="1:15">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-    </row>
-    <row r="298" spans="1:15">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
-      <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
-      <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
-      <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-    </row>
-    <row r="299" spans="1:15">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
-      <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
-      <c r="L299" s="1"/>
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-    </row>
-    <row r="300" spans="1:15">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-      <c r="L300" s="1"/>
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-    </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
@@ -7138,774 +7160,420 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="9"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="8"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="9" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>33</v>
+      <c r="C1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>52</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16">
         <v>43095</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>35</v>
+      <c r="D2" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" hidden="1" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" hidden="1" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21">
+        <v>43110</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" hidden="1" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" hidden="1" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" ht="2" hidden="1" customHeight="1" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:7">
+      <c r="A7" s="20">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43114</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="25"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" hidden="1" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" hidden="1" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" hidden="1" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43110</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="16"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="16"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:7">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="16"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="25"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="15"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="17"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="17"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="6"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="6"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:7">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:7">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:7">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:7">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="17"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="17"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="17"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="17"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="6"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="14"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="A29:A43"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A56:A67"/>
-    <mergeCell ref="A68:A77"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E4:E12 E13:E14 E15:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E7 E5:E6 E8:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F3 F4:F12 F13:F14 F15:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4 F7 F5:F6 F8:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7918,90 +7586,62 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,7 +106,7 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>saas</t>
+    <t>Saas</t>
   </si>
   <si>
     <t>古都张姐鱼汤面</t>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>新品牌</t>
+  </si>
+  <si>
+    <t>日久料理</t>
+  </si>
+  <si>
+    <t>张丹丹</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -166,10 +172,10 @@
     <t>丁万能</t>
   </si>
   <si>
-    <t>日久料理</t>
+    <t>沈芳芳</t>
   </si>
   <si>
-    <t>沈芳芳</t>
+    <t>相遇小店</t>
   </si>
   <si>
     <t>姓名</t>
@@ -188,12 +194,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -271,6 +278,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -302,29 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -345,35 +352,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +380,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,7 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,19 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,19 +514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,13 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,18 +622,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -800,7 +807,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -836,21 +845,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -886,9 +880,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -897,55 +889,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1122,6 +1075,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1145,26 +1118,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1173,10 +1126,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,130 +1138,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,46 +1323,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,13 +1398,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,40 +1416,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,37 +1461,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,7 +1815,7 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1876,52 +1829,52 @@
     <col min="7" max="7" width="15.5083333333333" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="58"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="59"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="60" t="s">
@@ -1941,25 +1894,25 @@
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>12</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>52</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="46">
         <f>C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f>F3-G3</f>
         <v>0</v>
       </c>
@@ -1984,24 +1937,24 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="36">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="46">
         <v>0</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="46">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
         <f>F4-G4</f>
         <v>0</v>
       </c>
@@ -2025,28 +1978,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49">
+    <row r="5" spans="1:13">
+      <c r="A5" s="49"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="45">
-        <v>1</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D5" s="46">
+        <v>2</v>
+      </c>
+      <c r="E5" s="46">
         <f>C5-D5</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="65">
+        <v>0</v>
+      </c>
       <c r="J5" s="66">
         <f>I5/L5*100%</f>
         <v>0</v>
@@ -2057,25 +2012,25 @@
       </c>
       <c r="L5" s="68">
         <f>D5+G5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="69">
         <f>L5/K5*100%</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
         <f>C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="46">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f>F6-G6</f>
         <v>0</v>
       </c>
@@ -2146,8 +2101,8 @@
   <sheetPr/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2166,50 +2121,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2217,7 +2172,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>43115</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2229,19 +2184,19 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="31">
         <v>76123218</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1">
@@ -2261,21 +2216,51 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="32">
+        <v>43119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="31">
+        <v>76125107</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13770795312</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
@@ -7160,10 +7145,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7185,19 +7170,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7205,22 +7190,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="16">
         <v>43095</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7229,39 +7214,38 @@
       <c r="D3" s="17"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="19"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="20">
+        <v>43110</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="21">
-        <v>43110</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>48</v>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14"/>
@@ -7269,46 +7253,61 @@
       <c r="D6" s="17"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9">
         <v>43114</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>47</v>
+      <c r="D7" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="15"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="15"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43122</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14"/>
@@ -7316,7 +7315,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14"/>
@@ -7324,7 +7323,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14"/>
@@ -7332,7 +7331,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14"/>
@@ -7340,7 +7339,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14"/>
@@ -7348,7 +7347,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14"/>
@@ -7356,7 +7355,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14"/>
@@ -7364,7 +7363,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14"/>
@@ -7372,12 +7371,12 @@
       <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="15"/>
@@ -7385,23 +7384,23 @@
     <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:7">
-      <c r="A20" s="25"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="23"/>
@@ -7412,7 +7411,7 @@
       <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
@@ -7420,7 +7419,7 @@
       <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14"/>
@@ -7428,31 +7427,31 @@
       <c r="D24" s="17"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="14"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="15"/>
       <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="14"/>
@@ -7460,7 +7459,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14"/>
@@ -7468,31 +7467,31 @@
       <c r="D29" s="17"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:7">
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
-      <c r="D30" s="26"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="D32" s="17"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14"/>
@@ -7500,7 +7499,7 @@
       <c r="D33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14"/>
@@ -7508,72 +7507,32 @@
       <c r="D34" s="17"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="14"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="25"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E7 E5:E6 E8:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E7 E5:E6 E8:E19 E20:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4 F7 F5:F6 F8:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3 F4 F7 F5:F6 F8:F19 F20:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7606,16 +7565,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:5">

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -133,6 +133,18 @@
     <t>张丹丹</t>
   </si>
   <si>
+    <t>相遇小面</t>
+  </si>
+  <si>
+    <t>张建华</t>
+  </si>
+  <si>
+    <t>桃园小馆</t>
+  </si>
+  <si>
+    <t>吴华</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -175,7 +187,13 @@
     <t>沈芳芳</t>
   </si>
   <si>
-    <t>相遇小店</t>
+    <t>制果家</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>堵雪军</t>
   </si>
   <si>
     <t>姓名</t>
@@ -195,12 +213,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -393,8 +411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,9 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,19 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,18 +640,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -877,15 +895,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1129,7 +1138,7 @@
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,115 +1147,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,14 +1270,14 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,7 +1326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1356,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,11 +1371,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1416,37 +1425,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,37 +1467,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1816,7 +1822,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1847,10 +1853,10 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="J1" s="58"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="59"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="37" t="s">
@@ -1877,19 +1883,19 @@
       <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1907,32 +1913,32 @@
         <v>0</v>
       </c>
       <c r="E3" s="46">
-        <f>C3-D3</f>
+        <f t="shared" ref="E3:E6" si="0">C3-D3</f>
         <v>1</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
       <c r="H3" s="47">
-        <f>F3-G3</f>
+        <f t="shared" ref="H3:H7" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="64">
         <v>0</v>
       </c>
-      <c r="J3" s="66" t="e">
-        <f>I3/L3*100%</f>
+      <c r="J3" s="65" t="e">
+        <f t="shared" ref="J3:J7" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="67">
-        <f>C3+G3</f>
+      <c r="K3" s="66">
+        <f t="shared" ref="K3:K7" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="68">
-        <f>D3+G3</f>
+      <c r="L3" s="67">
+        <f t="shared" ref="L3:L7" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="69">
-        <f>L3/K3*100%</f>
+      <c r="M3" s="68">
+        <f t="shared" ref="M3:M7" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
@@ -1955,31 +1961,31 @@
       <c r="F4" s="47"/>
       <c r="G4" s="48"/>
       <c r="H4" s="47">
-        <f>F4-G4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="66" t="e">
-        <f>I4/L4*100%</f>
+      <c r="J4" s="65" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="67">
-        <f>C4+G4</f>
+      <c r="K4" s="66">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="68">
-        <f>D4+G4</f>
+      <c r="L4" s="67">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="69">
-        <f>L4/K4*100%</f>
+      <c r="M4" s="68">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="44">
         <v>3</v>
       </c>
@@ -1990,105 +1996,112 @@
         <v>2</v>
       </c>
       <c r="E5" s="46">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="48"/>
       <c r="H5" s="47">
-        <f>F5-G5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="64">
         <v>0</v>
       </c>
-      <c r="J5" s="66">
-        <f>I5/L5*100%</f>
+      <c r="J5" s="65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="67">
-        <f>C5+G5</f>
+      <c r="K5" s="66">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="68">
-        <f>D5+G5</f>
+      <c r="L5" s="67">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="69">
-        <f>L5/K5*100%</f>
+      <c r="M5" s="68">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
+        <v>5</v>
+      </c>
+      <c r="C6" s="45">
+        <v>2</v>
+      </c>
+      <c r="D6" s="46">
+        <v>2</v>
+      </c>
       <c r="E6" s="46">
-        <f>C6-D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="48"/>
       <c r="H6" s="47">
-        <f>F6-G6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66" t="e">
-        <f>I6/L6*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="67">
-        <f>C6+G6</f>
+      <c r="I6" s="64">
         <v>0</v>
       </c>
-      <c r="L6" s="68">
-        <f>D6+G6</f>
+      <c r="J6" s="65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="69" t="e">
-        <f>L6/K6*100%</f>
-        <v>#DIV/0!</v>
+      <c r="K6" s="66">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56">
-        <f>F7-G7</f>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="e">
-        <f>I7/L7*100%</f>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="72">
-        <f>C7+G7</f>
+      <c r="K7" s="71">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="73">
-        <f>D7+G7</f>
+      <c r="L7" s="72">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="74" t="e">
-        <f>L7/K7*100%</f>
+      <c r="M7" s="73" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2101,8 +2114,8 @@
   <sheetPr/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2121,50 +2134,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="27" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2172,7 +2185,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <v>43115</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2187,7 +2200,7 @@
       <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="7">
         <v>76123218</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2231,19 +2244,19 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="7">
         <v>76125107</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="1">
@@ -2263,38 +2276,98 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="32">
+        <v>43130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7">
+        <v>76128015</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18280327912</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32">
+        <v>43129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7">
+        <v>76126193</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18915907336</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
@@ -7147,8 +7220,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7170,19 +7243,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7190,22 +7263,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="16">
         <v>43095</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7221,22 +7294,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="20">
         <v>43110</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7266,16 +7339,16 @@
         <v>43114</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -7291,22 +7364,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9">
         <v>43122</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7317,16 +7390,31 @@
       <c r="F10" s="1"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="23"/>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43131</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="15"/>
       <c r="D12" s="17"/>
       <c r="E12" s="1"/>
@@ -7334,7 +7422,7 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15"/>
       <c r="D13" s="17"/>
       <c r="E13" s="1"/>
@@ -7342,7 +7430,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15"/>
       <c r="D14" s="17"/>
       <c r="E14" s="1"/>
@@ -7350,7 +7438,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="15"/>
       <c r="D15" s="17"/>
       <c r="E15" s="1"/>
@@ -7358,7 +7446,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15"/>
       <c r="D16" s="17"/>
       <c r="E16" s="1"/>
@@ -7366,7 +7454,7 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="15"/>
       <c r="D17" s="17"/>
       <c r="E17" s="1"/>
@@ -7374,7 +7462,7 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="14"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="15"/>
       <c r="D18" s="25"/>
       <c r="E18" s="1"/>
@@ -7382,7 +7470,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="14"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="15"/>
       <c r="D19" s="25"/>
       <c r="E19" s="1"/>
@@ -7523,7 +7611,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A37"/>
   </mergeCells>
@@ -7565,16 +7653,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:5">

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -145,6 +145,12 @@
     <t>吴华</t>
   </si>
   <si>
+    <t>鲜牛一锅（板桥店）</t>
+  </si>
+  <si>
+    <t>王明</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -213,11 +219,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -289,8 +295,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,60 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,45 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,25 +502,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,97 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,13 +616,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,26 +1036,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,6 +1066,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1080,6 +1086,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,30 +1133,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,10 +1141,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,137 +1153,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,6 +1383,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1432,10 +1441,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1835,267 +1844,275 @@
     <col min="7" max="7" width="15.5083333333333" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="47">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="47">
         <f t="shared" ref="E3:E6" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f t="shared" ref="H3:H7" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="65">
         <v>0</v>
       </c>
-      <c r="J3" s="65" t="e">
+      <c r="J3" s="66" t="e">
         <f t="shared" ref="J3:J7" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="67">
         <f t="shared" ref="K3:K7" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="68">
         <f t="shared" ref="L3:L7" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="68">
+      <c r="M3" s="69">
         <f t="shared" ref="M3:M7" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="47">
         <v>0</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="47">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="65">
         <v>0</v>
       </c>
-      <c r="J4" s="65" t="e">
+      <c r="J4" s="66" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="67">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="44">
+      <c r="A5" s="51"/>
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="46">
         <v>2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="47">
         <v>2</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="65">
         <v>0</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="67">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="68">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45">
         <v>5</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="46">
         <v>2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="47">
         <v>2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="65">
         <v>0</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="67">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="68">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54">
+      <c r="A7" s="52">
+        <v>2</v>
+      </c>
+      <c r="B7" s="53">
+        <v>6</v>
+      </c>
+      <c r="C7" s="54">
+        <v>1</v>
+      </c>
+      <c r="D7" s="55">
+        <v>1</v>
+      </c>
+      <c r="E7" s="55">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="55">
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70" t="e">
+      <c r="I7" s="70"/>
+      <c r="J7" s="71">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="71">
+        <v>0</v>
+      </c>
+      <c r="K7" s="72">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="72">
+        <v>1</v>
+      </c>
+      <c r="L7" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="73" t="e">
+        <v>1</v>
+      </c>
+      <c r="M7" s="74">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2132,7 @@
   <dimension ref="A1:O289"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2159,7 +2176,7 @@
       <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="29" t="s">
@@ -2375,16 +2392,36 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="F6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="33">
+        <v>76130117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1">
+        <v>17551053452</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15996305736</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
@@ -7220,7 +7257,7 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7243,19 +7280,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7263,22 +7300,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="16">
         <v>43095</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7294,22 +7331,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="20">
         <v>43110</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7339,16 +7376,16 @@
         <v>43114</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -7370,16 +7407,16 @@
         <v>43122</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7395,22 +7432,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="9">
         <v>43131</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7653,16 +7690,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:5">

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -145,6 +145,12 @@
     <t>吴华</t>
   </si>
   <si>
+    <t>南京汉德壹樽餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>鲜牛一锅</t>
+  </si>
+  <si>
     <t>鲜牛一锅（板桥店）</t>
   </si>
   <si>
@@ -219,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -295,59 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -356,60 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +331,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,19 +544,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +598,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,67 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,6 +1038,17 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,11 +1083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,27 +1122,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1141,10 +1147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1153,137 +1159,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,9 +1388,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1830,7 +1833,7 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1844,273 +1847,273 @@
     <col min="7" max="7" width="15.5083333333333" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="59"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f t="shared" ref="E3:E6" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47">
         <f t="shared" ref="H3:H7" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="64">
         <v>0</v>
       </c>
-      <c r="J3" s="66" t="e">
+      <c r="J3" s="65" t="e">
         <f t="shared" ref="J3:J7" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="66">
         <f t="shared" ref="K3:K7" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="67">
         <f t="shared" ref="L3:L7" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="68">
         <f t="shared" ref="M3:M7" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>1</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="64">
         <v>0</v>
       </c>
-      <c r="J4" s="66" t="e">
+      <c r="J4" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="66">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="51"/>
-      <c r="B5" s="45">
+      <c r="A5" s="50"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>2</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="64">
         <v>0</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="66">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="68">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44">
         <v>5</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>2</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>2</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>1</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <v>0</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="66">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="67">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="68">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>2</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="52">
         <v>6</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>1</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="54">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56">
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71">
+      <c r="I7" s="69"/>
+      <c r="J7" s="70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="73">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2131,8 +2134,8 @@
   <sheetPr/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2176,7 +2179,7 @@
       <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="29" t="s">
@@ -2387,19 +2390,29 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="33" t="s">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32">
+        <v>43138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="7">
         <v>76130117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>31</v>
@@ -2411,7 +2424,7 @@
         <v>17551053452</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>34</v>
@@ -7280,19 +7293,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7300,22 +7313,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="16">
         <v>43095</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7331,22 +7344,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="20">
         <v>43110</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -7376,16 +7389,16 @@
         <v>43114</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -7407,16 +7420,16 @@
         <v>43122</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7432,22 +7445,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9">
         <v>43131</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7690,16 +7703,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:5">

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="19905" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -157,6 +157,36 @@
     <t>王明</t>
   </si>
   <si>
+    <t>南京制果家餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>制果家</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>制果家(重庆奉节店)</t>
+  </si>
+  <si>
+    <t>张隆龙</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>咪咖烘焙</t>
+  </si>
+  <si>
+    <t>咪咔烘焙</t>
+  </si>
+  <si>
+    <t>李岩</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -199,13 +229,13 @@
     <t>沈芳芳</t>
   </si>
   <si>
-    <t>制果家</t>
-  </si>
-  <si>
     <t>连锁</t>
   </si>
   <si>
     <t>堵雪军</t>
+  </si>
+  <si>
+    <t>旺园小吃</t>
   </si>
   <si>
     <t>姓名</t>
@@ -219,18 +249,27 @@
   <si>
     <t>加班内容</t>
   </si>
+  <si>
+    <t xml:space="preserve">3月 </t>
+  </si>
+  <si>
+    <t>南京市浦口区弘阳广场110号/咪咔烘焙</t>
+  </si>
+  <si>
+    <t>驻店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -302,16 +341,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,28 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -361,73 +448,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,7 +470,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +583,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,43 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,31 +661,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,49 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,28 +1081,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,21 +1115,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1115,17 +1137,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1139,6 +1154,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1147,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,137 +1198,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,6 +1353,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,7 +1383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,6 +1413,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1383,7 +1431,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1831,291 +1879,336 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
+    <col min="11" max="11" width="16" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="43">
+      <c r="A3" s="46">
         <v>12</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="47">
         <v>52</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="49">
         <f t="shared" ref="E3:E6" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47">
-        <f t="shared" ref="H3:H7" si="1">F3-G3</f>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50">
+        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="67">
         <v>0</v>
       </c>
-      <c r="J3" s="65" t="e">
-        <f t="shared" ref="J3:J7" si="2">I3/L3*100%</f>
+      <c r="J3" s="68" t="e">
+        <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="66">
-        <f t="shared" ref="K3:K7" si="3">C3+G3</f>
+      <c r="K3" s="69">
+        <f t="shared" ref="K3:K8" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="67">
-        <f t="shared" ref="L3:L7" si="4">D3+G3</f>
+      <c r="L3" s="70">
+        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="68">
-        <f t="shared" ref="M3:M7" si="5">L3/K3*100%</f>
+      <c r="M3" s="71">
+        <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="48">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="49">
         <v>0</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="47">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="67">
         <v>0</v>
       </c>
-      <c r="J4" s="65" t="e">
+      <c r="J4" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="44">
+      <c r="A5" s="53"/>
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="49">
         <v>2</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47">
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="67">
         <v>0</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="67">
+      <c r="L5" s="70">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47">
         <v>5</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="48">
         <v>2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="49">
         <v>2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="49">
         <v>1</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47">
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="67">
         <v>0</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="70">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="51">
+      <c r="A7" s="54">
         <v>2</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="55">
         <v>6</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="56">
         <v>1</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="57">
         <v>1</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="57">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="55">
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70">
+      <c r="I7" s="72">
+        <v>0</v>
+      </c>
+      <c r="J7" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="74">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="76">
         <f t="shared" si="5"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="54">
+        <v>3</v>
+      </c>
+      <c r="B8" s="55">
+        <v>12</v>
+      </c>
+      <c r="C8" s="56">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0</v>
+      </c>
+      <c r="E8" s="57">
+        <f>C8-D8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0</v>
+      </c>
+      <c r="J8" s="73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2134,8 +2227,8 @@
   <sheetPr/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2146,7 +2239,7 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
@@ -2154,50 +2247,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2205,7 +2298,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="34">
         <v>43115</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2217,19 +2310,19 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>76123218</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1">
@@ -2252,7 +2345,7 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="35">
         <v>43119</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2264,19 +2357,19 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>76125107</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="1">
@@ -2299,7 +2392,7 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="35">
         <v>43130</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2311,19 +2404,19 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>76128015</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="1">
@@ -2346,7 +2439,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="35">
         <v>43129</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2358,19 +2451,19 @@
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>76126193</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="1">
@@ -2393,7 +2486,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="35">
         <v>43138</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2405,19 +2498,19 @@
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>76130117</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="1">
@@ -2437,38 +2530,98 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="35">
+        <v>43178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7">
+        <v>76129513</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18013997339</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="35">
+        <v>43178</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7">
+        <v>76132811</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="1">
+        <v>17512561213</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
@@ -7270,391 +7423,406 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="8"/>
+    <col min="1" max="1" width="8.625" style="10"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>50</v>
+      <c r="C1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="14">
+      <c r="A2" s="16">
         <v>52</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="18">
         <v>43095</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>52</v>
+      <c r="D2" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="22">
         <v>43110</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>57</v>
+      <c r="D4" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="19">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>43114</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>57</v>
+      <c r="D7" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="24"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="17"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>43122</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>52</v>
+      <c r="D9" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11">
         <v>43131</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>52</v>
+      <c r="D11" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="11">
+        <v>43174</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="15"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="17"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="15"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="17"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="17"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
-      <c r="B16" s="15"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="17"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="15"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="17"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="15"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="17"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
-      <c r="B27" s="15"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="17"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7686,7 +7854,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -7703,42 +7871,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43176</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="6960"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -185,6 +185,45 @@
   </si>
   <si>
     <t>李岩</t>
+  </si>
+  <si>
+    <t>上海毕咨信息技术有限公司</t>
+  </si>
+  <si>
+    <t>毕咨</t>
+  </si>
+  <si>
+    <t>张凡</t>
+  </si>
+  <si>
+    <t>华食企业管理有限公司</t>
+  </si>
+  <si>
+    <t>哈姆特</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>哈姆特（郑州二七区店）</t>
+  </si>
+  <si>
+    <t>卢先生</t>
+  </si>
+  <si>
+    <t>宣城</t>
+  </si>
+  <si>
+    <t>哈姆特（安徽广德店）</t>
+  </si>
+  <si>
+    <t>夏果滋烩拉面</t>
+  </si>
+  <si>
+    <t>三杯鸡</t>
+  </si>
+  <si>
+    <t>洪吉林</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -267,8 +306,8 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -341,15 +380,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,9 +408,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,9 +431,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,45 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -448,22 +462,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +503,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,25 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +628,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,37 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,36 +736,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1005,6 +1044,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1077,21 +1138,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,6 +1147,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,37 +1205,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,6 +1228,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1186,10 +1247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,137 +1259,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,90 +1414,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1509,10 +1567,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,37 +1591,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,342 +1943,384 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="37" customWidth="1"/>
-    <col min="11" max="11" width="16" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="11" max="11" width="16" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>12</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>52</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>0</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E6" si="0">C3-D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50">
-        <f t="shared" ref="H3:H8" si="1">F3-G3</f>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49">
+        <f t="shared" ref="H3:H9" si="1">F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="68">
         <v>0</v>
       </c>
-      <c r="J3" s="68" t="e">
-        <f t="shared" ref="J3:J8" si="2">I3/L3*100%</f>
+      <c r="J3" s="69" t="e">
+        <f t="shared" ref="J3:J9" si="2">I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="69">
-        <f t="shared" ref="K3:K8" si="3">C3+G3</f>
+      <c r="K3" s="70">
+        <f t="shared" ref="K3:K9" si="3">C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="70">
-        <f t="shared" ref="L3:L8" si="4">D3+G3</f>
+      <c r="L3" s="71">
+        <f t="shared" ref="L3:L9" si="4">D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="71">
-        <f t="shared" ref="M3:M8" si="5">L3/K3*100%</f>
+      <c r="M3" s="72">
+        <f t="shared" ref="M3:M9" si="5">L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="52">
+      <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>0</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="50">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="68">
         <v>0</v>
       </c>
-      <c r="J4" s="68" t="e">
+      <c r="J4" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="70">
+      <c r="L4" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M4" s="71">
+      <c r="M4" s="72">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53"/>
-      <c r="B5" s="47">
+      <c r="A5" s="52"/>
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>2</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>2</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50">
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="68">
         <v>0</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="71">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46">
         <v>5</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>2</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>2</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>1</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="50">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="68">
         <v>0</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="71">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="72">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="54">
+      <c r="A7" s="53">
         <v>2</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="54">
         <v>6</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>1</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>1</v>
       </c>
-      <c r="E7" s="57">
-        <f>C7-D7</f>
+      <c r="E7" s="56">
+        <f t="shared" ref="E7:E9" si="6">C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="58">
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="73">
         <v>0</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="76">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="77">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="54">
+      <c r="A8" s="59">
         <v>3</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <v>12</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>1</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>0</v>
       </c>
-      <c r="E8" s="57">
-        <f>C8-D8</f>
+      <c r="E8" s="56">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58">
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="73">
         <v>0</v>
       </c>
-      <c r="J8" s="73" t="e">
+      <c r="J8" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="76">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
+    <row r="9" ht="14.25" spans="1:13">
+      <c r="A9" s="60"/>
+      <c r="B9" s="54">
+        <v>13</v>
+      </c>
+      <c r="C9" s="55">
+        <v>6</v>
+      </c>
+      <c r="D9" s="56">
+        <v>6</v>
+      </c>
+      <c r="E9" s="56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="73">
+        <v>0</v>
+      </c>
+      <c r="J9" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="75">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="76">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2227,8 +2333,8 @@
   <sheetPr/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2239,7 +2345,7 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
@@ -2247,50 +2353,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="28" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2298,7 +2404,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>43115</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2310,19 +2416,19 @@
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>76123218</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1">
@@ -2345,7 +2451,7 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="33">
         <v>43119</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2357,19 +2463,19 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>76125107</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="1">
@@ -2392,7 +2498,7 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>43130</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2404,19 +2510,19 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>76128015</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="1">
@@ -2439,7 +2545,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>43129</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2451,19 +2557,19 @@
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>76126193</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="1">
@@ -2486,7 +2592,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="33">
         <v>43138</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2498,23 +2604,23 @@
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>76130117</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="1">
-        <v>17551053452</v>
+        <v>17551053451</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>45</v>
@@ -2533,7 +2639,7 @@
       <c r="A7" s="1">
         <v>12</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>43178</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2580,7 +2686,7 @@
       <c r="A8" s="1">
         <v>12</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="33">
         <v>43178</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2624,76 +2730,196 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="33">
+        <v>43182</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="34">
+        <v>76139739</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="1">
+        <v>17788399793</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="33">
+        <v>43187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="34">
+        <v>76150818</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1">
+        <v>18951802269</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33">
+        <v>43187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="34">
+        <v>76150791</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="1">
+        <v>18951802269</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="33">
+        <v>43187</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="34">
+        <v>76151153</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15371033322</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7429,400 +7655,400 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="10"/>
+    <col min="1" max="1" width="8.625" style="9"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>60</v>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>52</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17">
         <v>43095</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>62</v>
+      <c r="D2" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="21">
         <v>43110</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>67</v>
+      <c r="D4" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>43114</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>67</v>
+      <c r="D7" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="17"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>43122</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>62</v>
+      <c r="D9" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>43131</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>62</v>
+      <c r="D11" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="10">
         <v>43174</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>67</v>
+      <c r="D12" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="17"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="16"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="17"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="16"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="17"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="16"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="17"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="16"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="17"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="16"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="17"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="16"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="17"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="16"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" s="17"/>
-      <c r="D27" s="19"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="16"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="D33" s="19"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7871,54 +8097,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>43176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -190,6 +190,24 @@
     <t>姜女士</t>
   </si>
   <si>
+    <t>哈姆特（六合龙池店）</t>
+  </si>
+  <si>
+    <t>赵女士</t>
+  </si>
+  <si>
+    <t>哈姆特（江宁上峰店）</t>
+  </si>
+  <si>
+    <t>金女士</t>
+  </si>
+  <si>
+    <t>泰州</t>
+  </si>
+  <si>
+    <t>哈姆特（泰州文化路店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -213,31 +231,19 @@
   <si>
     <t>加班内容</t>
   </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>翁晨</t>
-  </si>
-  <si>
-    <t>14~15</t>
-  </si>
-  <si>
-    <t>前往常熟安装内存条</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +304,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -319,24 +331,106 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,45 +445,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,58 +463,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,19 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +561,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,85 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,37 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,45 +1088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1126,26 +1099,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1126,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1181,10 +1193,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,137 +1205,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,15 +1441,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,16 +1450,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,10 +1468,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,10 +1531,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,6 +1565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1907,7 +1910,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
@@ -1920,455 +1923,411 @@
     <col min="7" max="7" width="15.45" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.9083333333333" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.9083333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9083333333333" style="47" customWidth="1"/>
+    <col min="10" max="10" width="17.9083333333333" style="43" customWidth="1"/>
     <col min="11" max="11" width="16" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.9083333333333" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.6333333333333" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="70"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="56">
+      <c r="A3" s="52">
         <v>4</v>
       </c>
-      <c r="B3" s="57">
-        <v>15</v>
-      </c>
-      <c r="C3" s="58">
-        <v>1</v>
-      </c>
-      <c r="D3" s="59">
-        <v>1</v>
-      </c>
-      <c r="E3" s="59">
-        <v>0</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="76">
-        <v>0</v>
-      </c>
-      <c r="J3" s="77">
-        <v>0</v>
-      </c>
-      <c r="K3" s="78">
-        <v>1</v>
-      </c>
-      <c r="L3" s="79">
-        <v>1</v>
-      </c>
-      <c r="M3" s="80">
-        <v>1</v>
-      </c>
+      <c r="B3" s="53">
+        <v>17</v>
+      </c>
+      <c r="C3" s="54">
+        <v>27</v>
+      </c>
+      <c r="D3" s="55">
+        <v>3</v>
+      </c>
+      <c r="E3" s="55">
+        <v>18</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="72">
+        <v>6</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57">
-        <v>16</v>
-      </c>
-      <c r="C4" s="58">
-        <v>3</v>
-      </c>
-      <c r="D4" s="59">
-        <v>1</v>
-      </c>
-      <c r="E4" s="59">
-        <v>2</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="76">
-        <v>0</v>
-      </c>
-      <c r="J4" s="77">
-        <v>0</v>
-      </c>
-      <c r="K4" s="78">
-        <v>3</v>
-      </c>
-      <c r="L4" s="79">
-        <v>1</v>
-      </c>
-      <c r="M4" s="81">
-        <v>0.33</v>
-      </c>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57">
-        <v>17</v>
-      </c>
-      <c r="C5" s="58">
-        <v>4</v>
-      </c>
-      <c r="D5" s="59">
-        <v>1</v>
-      </c>
-      <c r="E5" s="59">
-        <v>3</v>
-      </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="76">
-        <v>0</v>
-      </c>
-      <c r="J5" s="77">
-        <v>0</v>
-      </c>
-      <c r="K5" s="78">
-        <v>4</v>
-      </c>
-      <c r="L5" s="79">
-        <v>1</v>
-      </c>
-      <c r="M5" s="80">
-        <v>0.25</v>
-      </c>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="76"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="76"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="56">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="76"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="76"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="76"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="76"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="62"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="76"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68">
+      <c r="A15" s="64">
         <v>6</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="76"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="76"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="76"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="76"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
     </row>
     <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="76"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68">
+      <c r="A20" s="64">
         <v>7</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="77"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="76"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="76"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="77"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="76"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="76"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2389,8 +2348,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
@@ -2434,7 +2393,7 @@
       <c r="H1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="33" t="s">
@@ -2457,7 +2416,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="35">
+      <c r="A2" s="24">
         <v>17</v>
       </c>
       <c r="B2" s="29">
@@ -2475,7 +2434,7 @@
       <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="21">
         <v>76157881</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -2504,7 +2463,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="37"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="29">
         <v>43214</v>
       </c>
@@ -2520,7 +2479,7 @@
       <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="21">
         <v>76152273</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -2541,7 +2500,7 @@
       <c r="M3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="35">
         <v>18115881163</v>
       </c>
       <c r="O3" t="s">
@@ -2549,7 +2508,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="37"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="29">
         <v>43215</v>
       </c>
@@ -2565,10 +2524,10 @@
       <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="35">
         <v>76159001</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="36" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -2594,9 +2553,9 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:15">
-      <c r="A5" s="37"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="29">
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>29</v>
@@ -2607,7 +2566,7 @@
       <c r="E5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="1">
@@ -2631,7 +2590,7 @@
       <c r="M5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="35">
         <v>18888712850</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -2639,20 +2598,20 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="29">
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="35" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="38" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="1">
@@ -2684,20 +2643,20 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:15">
-      <c r="A7" s="43"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="29">
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="1">
@@ -2721,7 +2680,7 @@
       <c r="M7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="35">
         <v>13915856228</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2729,55 +2688,139 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="29">
+        <v>43217</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76162220</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15951658749</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="29">
+        <v>43217</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76162185</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1">
+        <v>13814527023</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="29">
+        <v>43217</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76163609</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="21">
+        <v>18921716760</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
@@ -2793,7 +2836,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="46"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
@@ -2810,7 +2853,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="46"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
@@ -2888,7 +2931,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -7711,7 +7754,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7758,19 +7801,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8578,7 +8621,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8595,28 +8638,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="8"/>

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="20145" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>KA项目未上线数</t>
-  </si>
-  <si>
-    <t>项目远程上线数</t>
-  </si>
-  <si>
-    <t>远程上线占比</t>
   </si>
   <si>
     <t>立项总计</t>
@@ -208,6 +202,51 @@
     <t>哈姆特（泰州文化路店）</t>
   </si>
   <si>
+    <t>农家大席(徐州店)</t>
+  </si>
+  <si>
+    <t>农家大席</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>赵先生</t>
+  </si>
+  <si>
+    <t>南京浏阳蒸菜</t>
+  </si>
+  <si>
+    <t>浏水湘蒸</t>
+  </si>
+  <si>
+    <t>南京三顺餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>南京小郡肝串串</t>
+  </si>
+  <si>
+    <t>熹串小郡肝串串香火锅</t>
+  </si>
+  <si>
+    <t>沈先生</t>
+  </si>
+  <si>
+    <t>处女，坐（江宁万达店）</t>
+  </si>
+  <si>
+    <t>卢小姐</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 哈姆特（海宁海洲店）</t>
+  </si>
+  <si>
+    <t>李老板</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -231,6 +270,12 @@
   <si>
     <t>加班内容</t>
   </si>
+  <si>
+    <t>六府上线</t>
+  </si>
+  <si>
+    <t>清明值班</t>
+  </si>
 </sst>
 </file>
 
@@ -238,9 +283,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="31">
@@ -331,6 +376,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -339,7 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,9 +414,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,6 +432,21 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,38 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,25 +483,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,13 +499,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,19 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +582,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,13 +600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,31 +666,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,60 +726,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -852,9 +891,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -878,7 +915,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -910,24 +947,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -942,45 +966,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1014,16 +999,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1035,17 +1018,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1069,9 +1041,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1082,23 +1052,21 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,8 +1089,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,50 +1153,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1193,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,137 +1173,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,19 +1319,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1456,6 +1424,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1465,9 +1445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,10 +1472,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,82 +1487,82 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,435 +1884,366 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.09166666666667" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.09166666666667" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.2666666666667" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.725" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.9083333333333" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.45" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.9083333333333" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.9083333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.9083333333333" style="43" customWidth="1"/>
-    <col min="11" max="11" width="16" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.9083333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="18.6333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="44" t="s">
+    <row r="1" ht="15" spans="1:11">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="66"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:11">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="70" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="55">
         <v>12</v>
       </c>
-      <c r="M2" s="71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="52">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="59">
+        <f>F3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="78">
+        <v>1</v>
+      </c>
+      <c r="J3" s="79">
+        <v>1</v>
+      </c>
+      <c r="K3" s="80">
+        <f>J3/I3*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:11">
+      <c r="A4" s="61">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57">
+        <v>3</v>
+      </c>
+      <c r="D4" s="62">
+        <v>3</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="81">
+        <v>3</v>
+      </c>
+      <c r="J4" s="82">
+        <v>3</v>
+      </c>
+      <c r="K4" s="83">
+        <f>D4/C4*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:11">
+      <c r="A5" s="61">
+        <v>2</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58">
+        <v>0</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="84">
+        <v>1</v>
+      </c>
+      <c r="J5" s="84">
+        <v>1</v>
+      </c>
+      <c r="K5" s="85">
+        <f t="shared" ref="K5:K14" si="0">D5/C5*100%</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="61">
+        <v>3</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57">
+        <v>5</v>
+      </c>
+      <c r="D6" s="58">
+        <v>5</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="78">
+        <v>5</v>
+      </c>
+      <c r="J6" s="79">
+        <v>5</v>
+      </c>
+      <c r="K6" s="85">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="61">
         <v>4</v>
       </c>
-      <c r="B3" s="53">
-        <v>17</v>
-      </c>
-      <c r="C3" s="54">
-        <v>27</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57">
+        <v>6</v>
+      </c>
+      <c r="D7" s="58">
+        <v>9</v>
+      </c>
+      <c r="E7" s="58">
         <v>3</v>
       </c>
-      <c r="E3" s="55">
-        <v>18</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="72">
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="86">
         <v>6</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-    </row>
-    <row r="9" ht="0.75" customHeight="1" spans="1:10">
-      <c r="A9" s="52">
+      <c r="J7" s="84">
+        <v>9</v>
+      </c>
+      <c r="K7" s="85">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A14" s="58"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="64">
-        <v>6</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:13">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="64">
-        <v>7</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="B8" s="66">
+        <v>19</v>
+      </c>
+      <c r="C8" s="67">
+        <v>0</v>
+      </c>
+      <c r="D8" s="68">
+        <v>3</v>
+      </c>
+      <c r="E8" s="68">
+        <v>0</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="79">
+        <v>3</v>
+      </c>
+      <c r="K8" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70">
+        <v>20</v>
+      </c>
+      <c r="C9" s="57">
+        <v>3</v>
+      </c>
+      <c r="D9" s="58">
+        <v>2</v>
+      </c>
+      <c r="E9" s="58">
+        <v>1</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="78">
+        <v>3</v>
+      </c>
+      <c r="J9" s="79">
+        <v>2</v>
+      </c>
+      <c r="K9" s="85">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="72"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="73"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="85" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A24"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2346,10 +2254,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
@@ -2358,7 +2266,7 @@
     <col min="2" max="2" width="11.45" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.45" customWidth="1"/>
     <col min="4" max="4" width="26.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="21.375" customWidth="1"/>
@@ -2370,49 +2278,49 @@
   <sheetData>
     <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2423,43 +2331,43 @@
         <v>43214</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="21">
         <v>76157881</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K2" s="1">
         <v>17551053451</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1">
         <v>15295502912</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2468,43 +2376,43 @@
         <v>43214</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="21">
         <v>76152273</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="1">
         <v>17551053451</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="35">
         <v>18115881163</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2513,43 +2421,43 @@
         <v>43215</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="35">
         <v>76159001</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="1">
         <v>17551053451</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1">
         <v>13914716051</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:15">
@@ -2558,43 +2466,43 @@
         <v>43217</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>76160709</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="1">
         <v>17551053451</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N5" s="35">
         <v>18888712850</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:15">
@@ -2603,43 +2511,43 @@
         <v>43217</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1">
         <v>76150818</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="1">
         <v>17551053451</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" s="1">
         <v>18236939173</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:15">
@@ -2648,43 +2556,43 @@
         <v>43217</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>76150791</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K7" s="1">
         <v>17551053451</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N7" s="35">
         <v>13915856228</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2693,43 +2601,43 @@
         <v>43217</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>76162220</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K8" s="1">
         <v>17551053451</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8" s="1">
         <v>15951658749</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2738,43 +2646,43 @@
         <v>43217</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>76162185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K9" s="1">
         <v>17551053451</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N9" s="1">
         <v>13814527023</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2783,129 +2691,273 @@
         <v>43217</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1">
         <v>76163609</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="K10" s="1">
         <v>17551053451</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N10" s="21">
         <v>18921716760</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="24">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29">
+        <v>43231</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76161758</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="46">
+        <v>13347934279</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="29">
+        <v>43231</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>76162658</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="46">
+        <v>18951072399</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="29">
+        <v>43231</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>76159316</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="46">
+        <v>18581409416</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="41">
+        <v>20</v>
+      </c>
+      <c r="B14" s="29">
+        <v>43235</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>76167562</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18751852781</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="29">
+        <v>43235</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76166898</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1">
+        <v>17551053451</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="1">
+        <v>15356805008</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
@@ -2931,7 +2983,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2944,17 +2996,17 @@
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -7752,9 +7804,28 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="1"/>
+      <c r="B301" s="29"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7763,7 +7834,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O4 O5:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O4 O12 O5:O11 O13:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7798,22 +7869,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8621,7 +8692,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8638,25 +8709,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
+      <c r="A2" s="5">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43191</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="10"/>

--- a/周数据/《个人上线率统计表》-顾鹏.xlsx
+++ b/周数据/《个人上线率统计表》-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7530"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -369,8 +369,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,17 +393,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,10 +408,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +433,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -436,17 +447,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,46 +491,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -564,49 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,43 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +636,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +702,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,16 +1056,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1082,6 +1082,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,56 +1153,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,31 +1173,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,104 +1206,104 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,18 +1423,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1887,7 +1875,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1905,332 +1893,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="55">
+      <c r="A3" s="51">
         <v>12</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53">
         <v>1</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="54">
         <v>1</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>0</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59">
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="74">
         <v>1</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="75">
         <v>1</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="76">
         <f>J3/I3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:11">
-      <c r="A4" s="61">
+      <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53">
         <v>3</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="58">
         <v>3</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="58">
         <v>0</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="81">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="77">
         <v>3</v>
       </c>
-      <c r="J4" s="82">
+      <c r="J4" s="78">
         <v>3</v>
       </c>
-      <c r="K4" s="83">
+      <c r="K4" s="79">
         <f>D4/C4*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:11">
-      <c r="A5" s="61">
+      <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58">
+      <c r="B5" s="52"/>
+      <c r="C5" s="54">
         <v>1</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>1</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="54">
         <v>0</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="84">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="80">
         <v>1</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="80">
         <v>1</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="81">
         <f t="shared" ref="K5:K14" si="0">D5/C5*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="61">
+      <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53">
         <v>5</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="54">
         <v>5</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <v>0</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="78">
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="74">
         <v>5</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="75">
         <v>5</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="81">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="61">
+      <c r="A7" s="57">
         <v>4</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53">
         <v>6</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="54">
         <v>9</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="54">
         <v>3</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="86">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="82">
         <v>6</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="80">
         <v>9</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="81">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="65">
+      <c r="A8" s="61">
         <v>5</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="62">
         <v>19</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="63">
         <v>0</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="64">
         <v>3</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="64">
         <v>0</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="78">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="74">
         <v>0</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="75">
         <v>3</v>
       </c>
-      <c r="K8" s="85" t="e">
+      <c r="K8" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66">
         <v>20</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="53">
         <v>3</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="54">
         <v>2</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="54">
         <v>1</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="78">
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="74">
         <v>3</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="75">
         <v>2</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="81">
         <f t="shared" si="0"/>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="85" t="e">
+      <c r="A10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="72"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="85" t="e">
+      <c r="A11" s="68"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="72"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85" t="e">
+      <c r="A12" s="68"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="72"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="85" t="e">
+      <c r="A13" s="68"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="73"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="85" t="e">
+      <c r="A14" s="69"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2276,7 +2264,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="27" spans="1:15">
+    <row r="1" s="30" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2289,7 @@
       <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="33" t="s">
@@ -2770,7 +2758,7 @@
       <c r="M11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="42">
         <v>13347934279</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -2778,7 +2766,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="29">
         <v>43231</v>
       </c>
@@ -2815,7 +2803,7 @@
       <c r="M12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="42">
         <v>18951072399</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -2860,7 +2848,7 @@
       <c r="M13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="42">
         <v>18581409416</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -2868,7 +2856,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="41">
+      <c r="A14" s="24">
         <v>20</v>
       </c>
       <c r="B14" s="29">
@@ -2915,7 +2903,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="29">
         <v>43235</v>
       </c>
@@ -2928,7 +2916,7 @@
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="1">
@@ -3000,7 +2988,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
